--- a/data/Data_Provider_v3.xlsx
+++ b/data/Data_Provider_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44932B01-B38C-1941-AC71-557DE3A9C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6CA16A-EC6F-8F4D-8ED5-77DE7E4CB5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="680" windowWidth="25740" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="680" windowWidth="25740" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -596,7 +596,7 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2708,7 +2708,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="I29" sqref="I29:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3815,6 +3815,9 @@
       <c r="G28" s="15">
         <v>0.9</v>
       </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
       <c r="J28">
         <v>2022</v>
       </c>
@@ -3851,6 +3854,9 @@
       <c r="H29" s="11">
         <v>0.7</v>
       </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
       <c r="J29" s="9">
         <v>2022</v>
       </c>
@@ -3895,6 +3901,9 @@
       <c r="H30" s="16">
         <v>0.7</v>
       </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
       <c r="J30" s="9">
         <v>2022</v>
       </c>
@@ -3934,6 +3943,9 @@
       </c>
       <c r="G31">
         <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
       </c>
       <c r="J31">
         <v>2022</v>
@@ -3971,7 +3983,9 @@
       <c r="H32" s="11">
         <v>0.7</v>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
       <c r="J32" s="9">
         <v>2022</v>
       </c>
@@ -4012,6 +4026,9 @@
       </c>
       <c r="H33" s="16">
         <v>0.7</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
       </c>
       <c r="J33" s="9">
         <v>2022</v>
@@ -4575,18 +4592,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4608,6 +4625,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4621,12 +4646,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Data_Provider_v3.xlsx
+++ b/data/Data_Provider_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6CA16A-EC6F-8F4D-8ED5-77DE7E4CB5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452383E-3010-E94F-B654-7C65F1BFA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="680" windowWidth="25740" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,8 +1631,8 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2707,7 +2707,7 @@
   </sheetPr>
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I29" sqref="I29:I33"/>
     </sheetView>
   </sheetViews>
@@ -3816,7 +3816,7 @@
         <v>0.9</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J28">
         <v>2022</v>
@@ -3855,7 +3855,7 @@
         <v>0.7</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J29" s="9">
         <v>2022</v>
@@ -3902,7 +3902,7 @@
         <v>0.7</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="9">
         <v>2022</v>
@@ -3945,7 +3945,7 @@
         <v>0.9</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J31">
         <v>2022</v>
@@ -3984,7 +3984,7 @@
         <v>0.7</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J32" s="9">
         <v>2022</v>
@@ -4028,7 +4028,7 @@
         <v>0.7</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="9">
         <v>2022</v>
@@ -4420,6 +4420,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4591,22 +4606,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4622,28 +4646,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>